--- a/data/trans_camb/P5_2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P5_2-Estudios-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,7 +556,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,23</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 14,59</t>
+          <t>-11,06; 9,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 6,15</t>
+          <t>-8,63; 9,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 7,15</t>
+          <t>-6,33; 6,94</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>-0,1%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>1,5%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-32,93; 118,35</t>
+          <t>-47,91; 81,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-36,7; 58,55</t>
+          <t>-45,27; 106,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-24,5; 59,15</t>
+          <t>-33,59; 60,39</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>1,73</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 5,02</t>
+          <t>-5,2; 8,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 5,41</t>
+          <t>-3,25; 6,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 4,41</t>
+          <t>-2,41; 5,8</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>10,72%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,25%</t>
+          <t>11,65%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>11,34%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,06; 35,44</t>
+          <t>-22,72; 58,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 45,31</t>
+          <t>-20,96; 69,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,2; 33,3</t>
+          <t>-14,2; 43,83</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>2,36</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 8,04</t>
+          <t>-5,98; 10,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 4,51</t>
+          <t>-3,48; 7,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 5,0</t>
+          <t>-2,32; 7,33</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>12,24%</t>
+          <t>11,66%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,6%</t>
+          <t>20,48%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>16,31%</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-20,52; 58,72</t>
+          <t>-26,51; 74,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-29,29; 37,73</t>
+          <t>-25,31; 91,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-16,11; 38,27</t>
+          <t>-15,37; 59,59</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>-1,44</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 4,89</t>
+          <t>-5,95; 1,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 3,63</t>
+          <t>-4,18; 3,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 3,26</t>
+          <t>-4,1; 1,59</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>-15,31%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>-4,43%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>-10,09%</t>
         </is>
       </c>
     </row>
@@ -913,25 +913,129 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-11,9; 33,64</t>
+          <t>-36,57; 13,56</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-13,58; 29,97</t>
+          <t>-27,44; 28,74</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 23,17</t>
+          <t>-26,35; 12,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,6</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,52</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-2,21; 3,72</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-1,88; 3,27</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-1,25; 2,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>3,81%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>3,87%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>3,84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-12,9; 25,61</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-12,74; 27,44</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-8,08; 18,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P5_2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P5_2-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,02</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,54</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.226862157209557</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.7882476617919437</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.9072825993958172</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-11,06; 9,63</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-8,63; 9,73</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-6,33; 6,94</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-9.250254893132102</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-8.210529330599293</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-5.861394128867242</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,1%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,82%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,5%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>12.24437303096957</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>10.27745988674245</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>7.823068863857435</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-47,91; 81,35</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-45,27; 106,01</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-33,59; 60,39</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.07137410792823751</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.05603015256683107</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.05847316591061442</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,91</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,51</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,73</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.4210431346830673</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.4473126924474228</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.3138706315090963</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-5,2; 8,45</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,25; 6,58</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,41; 5,8</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>1.065074122845288</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>1.118307508038582</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.6844400989568883</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>10,72%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>11,65%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>11,34%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>1.136786931338185</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.825178060094734</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.525188250713361</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-22,72; 58,65</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-20,96; 69,93</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-14,2; 43,83</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-5.790230095290476</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-3.015605809293412</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-2.611565139947133</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>2,1</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,34</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,36</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>7.670900471483176</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>7.324782442892403</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>5.380482322407211</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-5,98; 10,19</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-3,48; 7,91</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-2,32; 7,33</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.06373367180790485</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.1408031284956727</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.09978361146988997</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>11,66%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>20,48%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>16,31%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.26542753107759</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.200068538059632</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.1579151609373417</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-26,51; 74,71</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-25,31; 91,1</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-15,37; 59,59</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.5282377161347065</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.7428034246587879</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.4052027909601074</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,202 +775,221 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-2,24</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,62</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-1,44</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>1.607826694155928</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>2.181923108733834</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>2.070910699909684</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-5,95; 1,62</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-4,18; 3,55</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-4,1; 1,59</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-6.558053729032257</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-3.736441705216317</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-2.64863824822897</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-15,31%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-4,43%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-10,09%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>9.71017626421666</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>7.711742737308675</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>7.079670426053434</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-36,57; 13,56</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-27,44; 28,74</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-26,35; 12,14</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.08942779074979125</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.190870307752636</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.1432835105207189</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>0,6</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>0,52</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,56</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.2926518074836367</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.2680456409109589</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.1616774771426298</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-2,21; 3,72</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-1,88; 3,27</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-1,25; 2,61</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.700794317995028</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.8789301381411345</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.5853118304356245</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>3,81%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>3,87%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>3,84%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>1.330698781665207</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>1.775155948842674</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>1.603957299259734</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-12,9; 25,61</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-12,74; 27,44</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-8,08; 18,93</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-3.219721889863655</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-1.596014612530686</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-1.191604391396104</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>6.275230525696313</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>5.085902984639827</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>4.562714573532248</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.07486243409610727</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.1407207863090807</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.1066767302629453</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.1579982905420766</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.1137239019550823</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.07314866557751547</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.4030769522524466</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.4592005171310988</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.3266257260451692</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+  <mergeCells count="5">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
